--- a/simulations/cleaned_inclusion_exclusion/Jeyaraman_2020 IEC_clean/output/tables/metrics/metrics_sim.xlsx
+++ b/simulations/cleaned_inclusion_exclusion/Jeyaraman_2020 IEC_clean/output/tables/metrics/metrics_sim.xlsx
@@ -713,13 +713,13 @@
         <v>36</v>
       </c>
       <c r="C3">
-        <v>0.46875</v>
+        <v>0.5625</v>
       </c>
       <c r="D3">
-        <v>0.78125</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="E3">
-        <v>0.9791666666666666</v>
+        <v>0.9895833333333334</v>
       </c>
       <c r="F3">
         <v>0.9895833333333334</v>
@@ -728,16 +728,16 @@
         <v>0.9895833333333334</v>
       </c>
       <c r="H3">
-        <v>0.5089361702127659</v>
+        <v>0.5421276595744681</v>
       </c>
       <c r="I3">
-        <v>0.128958140253321</v>
+        <v>0.1108182730923695</v>
       </c>
       <c r="J3">
-        <v>0.375</v>
+        <v>0.46875</v>
       </c>
       <c r="K3">
-        <v>187.6458333333333</v>
+        <v>168.0729166666667</v>
       </c>
       <c r="L3">
         <v>9</v>
@@ -755,34 +755,34 @@
         <v>86</v>
       </c>
       <c r="Q3">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="R3">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="S3">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="T3">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="U3">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="V3">
-        <v>1055</v>
+        <v>1073</v>
       </c>
       <c r="W3">
-        <v>1040</v>
+        <v>1063</v>
       </c>
       <c r="X3">
-        <v>1000</v>
+        <v>1024</v>
       </c>
       <c r="Y3">
-        <v>883</v>
+        <v>895</v>
       </c>
       <c r="Z3">
-        <v>709</v>
+        <v>720</v>
       </c>
       <c r="AA3">
         <v>87</v>
@@ -800,19 +800,19 @@
         <v>10</v>
       </c>
       <c r="AF3">
-        <v>0.977757</v>
+        <v>0.994439</v>
       </c>
       <c r="AG3">
-        <v>0.963855</v>
+        <v>0.985171</v>
       </c>
       <c r="AH3">
-        <v>0.9267840000000001</v>
+        <v>0.949027</v>
       </c>
       <c r="AI3">
-        <v>0.81835</v>
+        <v>0.829472</v>
       </c>
       <c r="AJ3">
-        <v>0.65709</v>
+        <v>0.667285</v>
       </c>
     </row>
   </sheetData>
